--- a/trunk/Report.xlsx
+++ b/trunk/Report.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
     <sheet name="Function Available" sheetId="2" r:id="rId2"/>
+    <sheet name="Q&amp;A" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Role</t>
   </si>
@@ -74,6 +75,15 @@
   <si>
     <t>Description</t>
   </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Có nên thông báo cho Volunteer khi bị Charity từ chối ko?</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,16 +129,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +508,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f t="shared" ref="A4:A5" si="0">IF(B5&lt;&gt;"",A4+1,"")</f>
+        <f t="shared" ref="A5" si="0">IF(B5&lt;&gt;"",A4+1,"")</f>
         <v/>
       </c>
       <c r="B5" s="1"/>
@@ -1764,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1776,575 +1800,979 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <f>IF(B3&lt;&gt;"",A2+1,1)</f>
         <v>1</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="3" t="str">
         <f>IF(B4&lt;&gt;"",A3+1,"")</f>
         <v/>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="3" t="str">
         <f t="shared" ref="A5:A68" si="0">IF(B5&lt;&gt;"",A4+1,"")</f>
         <v/>
       </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="str">
+      <c r="A16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="str">
         <f t="shared" ref="A69:A95" si="1">IF(B69&lt;&gt;"",A68+1,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Report.xlsx
+++ b/trunk/Report.xlsx
@@ -24,11 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Role</t>
   </si>
   <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Candidate</t>
+  </si>
+  <si>
     <t>Charity</t>
   </si>
   <si>
@@ -57,15 +63,169 @@
   </si>
   <si>
     <t>Charity/ManageVolunteer/</t>
+  </si>
+  <si>
+    <t>Ko hiển thị message khi ko có volunteer</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Admin/AddExam</t>
+  </si>
+  <si>
+    <t>AddExam</t>
+  </si>
+  <si>
+    <t>Chưa style</t>
+  </si>
+  <si>
+    <t>/Admin/ManageUniversity</t>
+  </si>
+  <si>
+    <t>ManageUniversity</t>
+  </si>
+  <si>
+    <t>Delete Uni ko có pop up confirm</t>
+  </si>
+  <si>
+    <t>Có pop up confirm</t>
+  </si>
+  <si>
+    <t>Admin/ManageUniversityExam</t>
+  </si>
+  <si>
+    <t>ManageUniversityExam</t>
+  </si>
+  <si>
+    <t>Chưa validate khi tạo thông tin đợt thi của trường ĐHCĐ trùng. Vd: Có đợt 1 rồi vẫn đc tạo thêm đợt 1 nữa</t>
+  </si>
+  <si>
+    <t>Xóa Ko có popup confirm</t>
+  </si>
+  <si>
+    <t>Admin/AddUniversityExam</t>
+  </si>
+  <si>
+    <t>AddUniversityExam</t>
+  </si>
+  <si>
+    <t>Thao tác lặp lại quá nhiều khi assign trường ĐHCĐ với đợt thi</t>
+  </si>
+  <si>
+    <t>Show checkbox để user tick vào chọn</t>
+  </si>
+  <si>
+    <t>/Admin/ManageVenue/</t>
+  </si>
+  <si>
+    <t>ManageVenue</t>
+  </si>
+  <si>
+    <t>Ko có message khi chưa có địa điểm thi</t>
+  </si>
+  <si>
+    <t>display message để thông báo</t>
+  </si>
+  <si>
+    <t>Admin/EditVenue/</t>
+  </si>
+  <si>
+    <t>EntityValidationErrors - ko update đc địa chỉ venue</t>
+  </si>
+  <si>
+    <t>Candidate/ManageExamPaper</t>
+  </si>
+  <si>
+    <t>icon ko đều</t>
+  </si>
+  <si>
+    <t>chưa validate khi tạo trùng phiếu báo thi</t>
+  </si>
+  <si>
+    <t>ManageExamPaper</t>
+  </si>
+  <si>
+    <t>không cho phép tạo trùng đợt thi</t>
+  </si>
+  <si>
+    <t>delete exam paper ko có popup confirm</t>
+  </si>
+  <si>
+    <t>Charity/ManageLodge/</t>
+  </si>
+  <si>
+    <t>ManageLodge</t>
+  </si>
+  <si>
+    <t>Ko có message báo chưa có chỗ ở</t>
+  </si>
+  <si>
+    <t>Charity/ChooseLodgeForCe</t>
+  </si>
+  <si>
+    <t>ChooseLodgeForCe</t>
+  </si>
+  <si>
+    <t>Cha-ManageLodge-ChooseLodgeCe</t>
+  </si>
+  <si>
+    <t>/Charity/ManageLodgeCharity</t>
+  </si>
+  <si>
+    <t>ManageLodgeCharity</t>
+  </si>
+  <si>
+    <t>ko có message thông báo chưa có nhà trọ</t>
+  </si>
+  <si>
+    <t>Charity/DetailsLodge</t>
+  </si>
+  <si>
+    <t>DetailsLodge</t>
+  </si>
+  <si>
+    <t>Cha-ManageLodgeCharity-AddLodge-DetailsLodge</t>
+  </si>
+  <si>
+    <t>chưa có thông báo ko có phòng</t>
+  </si>
+  <si>
+    <t>DeleteRoom</t>
+  </si>
+  <si>
+    <t>deleted ko có pop up, chuyển sang trang trắng có ""</t>
+  </si>
+  <si>
+    <t>Edit car</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>validate ngay gio, lay gio hien tai, khoa cac moc qua khu, ko cho thao tac</t>
+  </si>
+  <si>
+    <t>ko co edit thong tin truoc khi dien ra dot thi 3 ngay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -92,10 +252,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,63 +540,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F4"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
